--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4046820.971379003</v>
+        <v>4042562.705725768</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7254875.404672146</v>
+        <v>7254875.404672147</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>220.5354029103592</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916669</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.2708193986185</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0785727665282</v>
+        <v>134.5737685148403</v>
       </c>
       <c r="H3" t="n">
-        <v>98.51394015369122</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>21.6203215235336</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.17967020512641</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>58.60288542710509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>328.3529172367591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>313.2715286638445</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.59436025830364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>198.5622246230542</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>306.2417465839972</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>136.4557884056257</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>50.42447262650126</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.2224443473098</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="I13" t="n">
-        <v>61.17550840396297</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.45765197016542</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>199.298406692554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.043911798777185</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.2052365248845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.19779014108431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.45703212904731</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>8.168913835720309</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>92.87435055577367</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>9.592641220496477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.7186804608957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4030,7 +4030,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>201.0757400165031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.543150220036</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="C2" t="n">
-        <v>1542.543150220036</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.780116977249</v>
+        <v>1387.121188589433</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.780116977249</v>
+        <v>1001.332935991189</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876411</v>
+        <v>590.347031201581</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512382</v>
+        <v>72.11519083088496</v>
       </c>
       <c r="K2" t="n">
-        <v>319.356318132175</v>
+        <v>151.9506691118214</v>
       </c>
       <c r="L2" t="n">
-        <v>868.7856527384575</v>
+        <v>699.7444981326192</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.73819666008</v>
+        <v>1327.697042054241</v>
       </c>
       <c r="N2" t="n">
-        <v>1740.986676341568</v>
+        <v>1951.178517094875</v>
       </c>
       <c r="O2" t="n">
-        <v>2284.534915538663</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263122</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2633.671635888808</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2633.671635888808</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.608748545237</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.608748545237</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="X2" t="n">
-        <v>1929.142990284157</v>
+        <v>2135.526219171995</v>
       </c>
       <c r="Y2" t="n">
-        <v>1929.142990284157</v>
+        <v>1745.386887196183</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>198.5178481733488</v>
+        <v>200.037852467983</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.00881771507488</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,16 +4412,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>220.7398221654121</v>
+        <v>118.4560672099611</v>
       </c>
       <c r="L3" t="n">
-        <v>355.4782740525816</v>
+        <v>620.3264609475548</v>
       </c>
       <c r="M3" t="n">
-        <v>993.1165734874702</v>
+        <v>1257.964760382443</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790179</v>
+        <v>1910.138639685152</v>
       </c>
       <c r="O3" t="n">
         <v>2191.996692751183</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5908670375232</v>
+        <v>413.3493683496802</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5908670375232</v>
+        <v>244.4131854217732</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5908670375232</v>
+        <v>94.29654600943752</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131524</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.034273103913</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856112</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066365</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249419</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>912.8607263634885</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="S4" t="n">
-        <v>705.2494094117203</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="T4" t="n">
-        <v>479.5782799458059</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="U4" t="n">
-        <v>479.5782799458059</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="V4" t="n">
-        <v>479.5782799458059</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="W4" t="n">
-        <v>479.5782799458059</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="X4" t="n">
-        <v>420.3834461810533</v>
+        <v>815.79041232345</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.5908670375232</v>
+        <v>594.9978331799199</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1193.599695067375</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.599695067375</v>
+        <v>1052.571121662294</v>
       </c>
       <c r="D5" t="n">
-        <v>835.3339964606248</v>
+        <v>694.3054230555438</v>
       </c>
       <c r="E5" t="n">
-        <v>835.3339964606248</v>
+        <v>694.3054230555438</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>687.3599223063403</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>323.9039731279416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>599.3866842141156</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>786.0860970395232</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4597,22 +4597,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.968190401611</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W5" t="n">
-        <v>1580.199535131497</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X5" t="n">
-        <v>1580.199535131497</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.199535131497</v>
+        <v>1421.533638602706</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>743.329530925984</v>
+        <v>599.2575280293014</v>
       </c>
       <c r="M6" t="n">
-        <v>1383.874880393089</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.048759695798</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.561072364559</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.5501960499129</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
         <v>52.70091953961285</v>
@@ -4752,25 +4752,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>845.195316251363</v>
+        <v>852.067697339307</v>
       </c>
       <c r="X7" t="n">
-        <v>617.2057653533457</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.4131862098155</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>799.922013559147</v>
+        <v>1408.399556799664</v>
       </c>
       <c r="C8" t="n">
-        <v>430.9594966187353</v>
+        <v>1039.437039859252</v>
       </c>
       <c r="D8" t="n">
-        <v>72.69379801198481</v>
+        <v>1039.437039859252</v>
       </c>
       <c r="E8" t="n">
-        <v>72.69379801198481</v>
+        <v>1039.437039859252</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>628.4511350696448</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4810,19 +4810,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1060.133027349403</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M8" t="n">
-        <v>1691.850838332715</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N8" t="n">
-        <v>2319.158506392561</v>
+        <v>1598.143668299902</v>
       </c>
       <c r="O8" t="n">
-        <v>2489.327531709521</v>
+        <v>2145.304873066979</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V8" t="n">
-        <v>1835.491524649934</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W8" t="n">
-        <v>1482.72286937982</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X8" t="n">
-        <v>1109.25711111874</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y8" t="n">
-        <v>1109.25711111874</v>
+        <v>1794.999396863786</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M9" t="n">
-        <v>804.1676154236933</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>1456.341494726402</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.2615055175233</v>
+        <v>519.6668354622486</v>
       </c>
       <c r="C10" t="n">
-        <v>794.2615055175233</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D10" t="n">
-        <v>644.1448661051876</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E10" t="n">
-        <v>496.2317725227945</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4989,25 +4989,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>794.2615055175233</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>794.2615055175233</v>
+        <v>922.1078794360185</v>
       </c>
       <c r="Y10" t="n">
-        <v>794.2615055175233</v>
+        <v>701.3153002924884</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179085</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4311299055728</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5180363231797</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F13" t="n">
-        <v>464.5180363231797</v>
+        <v>380.8823046593499</v>
       </c>
       <c r="G13" t="n">
-        <v>297.3219370380596</v>
+        <v>213.6862053742298</v>
       </c>
       <c r="H13" t="n">
-        <v>155.6101058802577</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935558</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656489</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1197.657161906075</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2445.908627217859</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.053792872764</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.452327895704</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>982.2858920990373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.9487421954783</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>491.0125592675714</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2412.158000621627</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2412.158000621627</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.6374272687974</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.2858920990371</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192576</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>639.6425904082686</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2103.250070178705</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1814.174843522903</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1559.490355317016</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1270.073185280056</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1042.083634382038</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>821.2910552385083</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168619</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3568999154069</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4207169875</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>559.3040775751642</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,19 +7408,19 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398595</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797191</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,13 +7627,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7645,7 +7645,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>416.009188706527</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>54.28329273607912</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>7.328121188872956</v>
       </c>
       <c r="K3" t="n">
-        <v>103.3169241974249</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579958</v>
+        <v>461.1122511579963</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>126.3388981706976</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>137.5293487322432</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>80.70566279614616</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>101.0927485134519</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8458,25 +8458,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>278.7842827623791</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>135.1826443325614</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>368.1928737819952</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.187794616238935e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="I13" t="n">
-        <v>20.09032791460258</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.1578210480469</v>
+        <v>88.18825743108312</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>52.83923663127396</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.3313349113445</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.37941682721026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>146.5692538725973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>217.5407415533168</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>124.5310997715146</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>136.8413214260727</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>45.99097492814144</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>24.63391537253401</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>675831.1629493136</v>
+        <v>675831.1629493138</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>611459.3894176279</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>611459.3894176279</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>611459.3894176277</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>611459.3894176278</v>
+        <v>611459.3894176279</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918869</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008500567</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765842</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,22 +26392,22 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>4.987936500614962e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.189062972413952e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707461</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707281</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707331</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707323</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707306</v>
+        <v>6897.424496707345</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707323</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051734</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243806.3793890271</v>
+        <v>-243806.3793890263</v>
       </c>
       <c r="C6" t="n">
-        <v>539625.6325966895</v>
+        <v>539625.6325966886</v>
       </c>
       <c r="D6" t="n">
-        <v>544531.8796051893</v>
+        <v>544531.8796051891</v>
       </c>
       <c r="E6" t="n">
-        <v>-76561.70190719263</v>
+        <v>-76909.08116155</v>
       </c>
       <c r="F6" t="n">
-        <v>699126.6453693915</v>
+        <v>698779.2661150348</v>
       </c>
       <c r="G6" t="n">
-        <v>699126.6453693912</v>
+        <v>698779.2661150343</v>
       </c>
       <c r="H6" t="n">
-        <v>699126.6453693917</v>
+        <v>698779.2661150347</v>
       </c>
       <c r="I6" t="n">
-        <v>699126.6453693919</v>
+        <v>698779.2661150347</v>
       </c>
       <c r="J6" t="n">
-        <v>526765.6529691109</v>
+        <v>526418.2737147538</v>
       </c>
       <c r="K6" t="n">
-        <v>699126.6453693917</v>
+        <v>698779.2661150346</v>
       </c>
       <c r="L6" t="n">
-        <v>699126.6453693919</v>
+        <v>698779.2661150348</v>
       </c>
       <c r="M6" t="n">
-        <v>571049.0485536781</v>
+        <v>570701.6692993208</v>
       </c>
       <c r="N6" t="n">
-        <v>699126.6453693918</v>
+        <v>698779.2661150349</v>
       </c>
       <c r="O6" t="n">
-        <v>699126.6453693914</v>
+        <v>698779.2661150347</v>
       </c>
       <c r="P6" t="n">
-        <v>699126.6453693912</v>
+        <v>698779.2661150347</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225493</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,10 +26946,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-6.48632871551744e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.48632871551744e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225493</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915515854</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451604</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>134.1476387103238</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>244.4602812798505</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.50480425168783</v>
       </c>
       <c r="H3" t="n">
-        <v>1.50480425168773</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2542924414428</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
@@ -27560,7 +27560,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.38275699775204</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>167.1067699619321</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>78.52312850495235</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>99.64537528209223</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.2376199236336</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27824,7 +27824,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>87.96077371353681</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.49209507948342</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>276.4611155403111</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>236.0985257100897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.557476906065137e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-8.300560239149491e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-9.035775219348954e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-8.300560239149491e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718789</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956755</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447372</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683753</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984517</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844681</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451696</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024182</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105519</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193693</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645651</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.508520260233</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031696</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575031</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770766</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777937</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555188</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.65382613055</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102893</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704977</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808494</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489524</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361686</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910953</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820278</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908703</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.0832200260975306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577926</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.8917330175376</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892074</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314783</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646946</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934101</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.283416530898</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983901</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435671</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780493</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.6833468877693</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472175</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139835</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31846,19 +31846,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861838</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302386</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34447,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>223.6976288294625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.706990213763</v>
+        <v>19.610375041689</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347114</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>553.3271000210079</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>634.2954989107294</v>
       </c>
       <c r="N2" t="n">
-        <v>246.7156360419069</v>
+        <v>629.7792677178114</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>549.0386254516105</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>108.7381239640998</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500206</v>
+        <v>32.99846259011559</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>169.7362652785851</v>
+        <v>66.41934108115984</v>
       </c>
       <c r="L3" t="n">
-        <v>136.0994463506763</v>
+        <v>506.939791654135</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>644.0790903382708</v>
       </c>
       <c r="N3" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>284.7051041071026</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>426.0372609745593</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>21.48726855014712</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250107</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552507</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124298</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110544</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>278.2653647335091</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>219.3214183675542</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>210.880251066279</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35178,22 +35178,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>419.520298763645</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>247.0354981199619</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>529.3164219322584</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417394</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579416</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,16 +37630,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,16 +37867,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>81.10138438501811</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4042562.705725768</v>
+        <v>4044323.236028553</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10956994.25395846</v>
+        <v>10956994.25395845</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>125.270819398621</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359317</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916669</v>
+        <v>1.360597680915873</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>155.1464635459281</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>125.2708193986185</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.5737685148403</v>
+        <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>100.0187444053789</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370742</v>
+        <v>45.84481919370719</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.6203215235336</v>
+        <v>20.11551727184785</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>148.1873837356349</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>41.17967020512641</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.6189682767631</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>313.2715286638445</v>
+        <v>313.271528663845</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>198.5622246230542</v>
+        <v>180.8663827412852</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>136.4557884056257</v>
+        <v>136.4557884056249</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>315.0408840752157</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938909</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>154.6528871281405</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664352</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958693</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183558</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>147.9721212459917</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176945</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.2224443473098</v>
+        <v>111.5266024655345</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6708469029954</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>60.42721558712923</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>113.5413580759696</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>107.7122866515517</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223633</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542935</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716562</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4312,70 +4312,70 @@
         <v>1745.386887196183</v>
       </c>
       <c r="D2" t="n">
-        <v>1387.121188589433</v>
+        <v>1387.121188589432</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.332935991189</v>
+        <v>1001.332935991188</v>
       </c>
       <c r="F2" t="n">
-        <v>590.347031201581</v>
+        <v>590.3470312015805</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870191</v>
+        <v>173.2373706870187</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870191</v>
+        <v>173.2373706870187</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088496</v>
+        <v>72.11519083088598</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118214</v>
+        <v>151.9506691118239</v>
       </c>
       <c r="L2" t="n">
-        <v>699.7444981326192</v>
+        <v>701.3800037181079</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.697042054241</v>
+        <v>1329.332547639732</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094875</v>
+        <v>1952.814022680368</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2494.726756291966</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2602.377499016427</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888807</v>
+        <v>2633.671635888809</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2476.958036347467</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2262.062400382723</v>
       </c>
       <c r="U2" t="n">
-        <v>2262.062400382721</v>
+        <v>2262.062400382723</v>
       </c>
       <c r="V2" t="n">
-        <v>2262.062400382721</v>
+        <v>2262.062400382723</v>
       </c>
       <c r="W2" t="n">
-        <v>2262.062400382721</v>
+        <v>2262.062400382723</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.526219171995</v>
+        <v>2262.062400382723</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.386887196183</v>
+        <v>1871.923068406911</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935053</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177445</v>
+        <v>792.1973789123783</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564932</v>
+        <v>643.2629692511271</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510377</v>
+        <v>484.0255142456716</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9709519779227</v>
+        <v>337.4909562725566</v>
       </c>
       <c r="G3" t="n">
-        <v>200.037852467983</v>
+        <v>200.0378524679827</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507488</v>
+        <v>99.00881771507467</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099611</v>
+        <v>118.4560672099622</v>
       </c>
       <c r="L3" t="n">
-        <v>620.3264609475548</v>
+        <v>620.3264609475573</v>
       </c>
       <c r="M3" t="n">
-        <v>1257.964760382443</v>
+        <v>1257.964760382447</v>
       </c>
       <c r="N3" t="n">
-        <v>1910.138639685152</v>
+        <v>1910.138639685156</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>2456.844879646161</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2613.773581115996</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665645</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775193</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213573</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>413.3493683496802</v>
+        <v>666.556782960159</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4131854217732</v>
+        <v>497.6206000322521</v>
       </c>
       <c r="D4" t="n">
-        <v>94.29654600943752</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131524</v>
+        <v>152.631324713153</v>
       </c>
       <c r="L4" t="n">
-        <v>336.034273103913</v>
+        <v>336.0342731039145</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856112</v>
+        <v>539.7960902856134</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066365</v>
+        <v>744.1475233066396</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249419</v>
+        <v>916.8828514249459</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351318</v>
+        <v>1041.167083351323</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="X4" t="n">
-        <v>815.79041232345</v>
+        <v>1043.779963221473</v>
       </c>
       <c r="Y4" t="n">
-        <v>594.9978331799199</v>
+        <v>848.2052477903987</v>
       </c>
     </row>
     <row r="5">
@@ -4546,25 +4546,25 @@
         <v>1421.533638602706</v>
       </c>
       <c r="C5" t="n">
-        <v>1052.571121662294</v>
+        <v>1052.571121662295</v>
       </c>
       <c r="D5" t="n">
-        <v>694.3054230555438</v>
+        <v>694.3054230555442</v>
       </c>
       <c r="E5" t="n">
-        <v>694.3054230555438</v>
+        <v>694.3054230555442</v>
       </c>
       <c r="F5" t="n">
-        <v>687.3599223063403</v>
+        <v>687.3599223063408</v>
       </c>
       <c r="G5" t="n">
         <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
         <v>73.93516953299616</v>
@@ -4573,19 +4573,19 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O5" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4637,31 +4637,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H6" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K6" t="n">
         <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2575280293014</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>778.7548643839062</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4670,7 +4670,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S6" t="n">
         <v>2464.467288245464</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.6371024675198</v>
+        <v>239.5116902268824</v>
       </c>
       <c r="C7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="D7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="E7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4764,13 +4764,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>852.067697339307</v>
+        <v>869.9422850986696</v>
       </c>
       <c r="X7" t="n">
-        <v>624.0781464412896</v>
+        <v>641.9527342006522</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.2855672977595</v>
+        <v>421.1601550571221</v>
       </c>
     </row>
     <row r="8">
@@ -4795,37 +4795,37 @@
         <v>628.4511350696448</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>490.6170053669933</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>172.3938901395026</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>241.340818553348</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>644.8079315733916</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>784.1365874146425</v>
       </c>
       <c r="M8" t="n">
-        <v>970.8360002400555</v>
+        <v>970.8360002400475</v>
       </c>
       <c r="N8" t="n">
-        <v>1598.143668299902</v>
+        <v>1598.143668299891</v>
       </c>
       <c r="O8" t="n">
-        <v>2145.304873066979</v>
+        <v>2145.304873066967</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2389.870016205745</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980644</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C9" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D9" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E9" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452694</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044921</v>
       </c>
       <c r="H9" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929665</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965078</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023164</v>
       </c>
       <c r="L9" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568433</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923036</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1430.92874368662</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439341</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920176</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4916,7 +4916,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U9" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V9" t="n">
         <v>1804.187096684975</v>
@@ -4928,7 +4928,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y9" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.6668354622486</v>
+        <v>537.5414232216117</v>
       </c>
       <c r="C10" t="n">
-        <v>350.7306525343417</v>
+        <v>368.6052402937048</v>
       </c>
       <c r="D10" t="n">
-        <v>200.614013122006</v>
+        <v>218.4886008813691</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897595</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897595</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897595</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897595</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897595</v>
       </c>
       <c r="J10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K10" t="n">
-        <v>153.7488491352227</v>
+        <v>153.7488491352219</v>
       </c>
       <c r="L10" t="n">
-        <v>338.581844036041</v>
+        <v>338.5818440360393</v>
       </c>
       <c r="M10" t="n">
-        <v>543.851444755279</v>
+        <v>543.8514447552762</v>
       </c>
       <c r="N10" t="n">
-        <v>749.6748095913833</v>
+        <v>749.6748095913796</v>
       </c>
       <c r="O10" t="n">
-        <v>923.7697049799822</v>
+        <v>923.7697049799775</v>
       </c>
       <c r="P10" t="n">
-        <v>1049.217281578598</v>
+        <v>1049.217281578592</v>
       </c>
       <c r="Q10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="X10" t="n">
-        <v>922.1078794360185</v>
+        <v>939.9824671953816</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.3153002924884</v>
+        <v>719.1898880518514</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>380.8823046593499</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>213.6862053742298</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5418,13 +5418,13 @@
         <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5500,31 +5500,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5652,16 +5652,16 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5737,25 +5737,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192503</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111724</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075819</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6700,28 +6700,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6840,13 +6840,13 @@
         <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7074,25 +7074,25 @@
         <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,19 +7171,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,7 +7192,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7420,40 +7420,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7563,10 +7563,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7672,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>416.009188706527</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>379.1481554188083</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872956</v>
+        <v>7.328121188872331</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579963</v>
+        <v>461.1122511579947</v>
       </c>
       <c r="O3" t="n">
-        <v>126.3388981706976</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>50.93934753389752</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428727</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>80.70566279614616</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>167.963436331116</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>135.1826443325614</v>
+        <v>135.1826443325796</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617264761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.187794616238935e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21.62386594322854</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>88.18825743108312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>32.89260457059957</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>37.70876137137955</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G34" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>675831.1629493138</v>
+        <v>675831.1629493134</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>675148.4218694557</v>
+        <v>675148.4218694562</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>611459.3894176278</v>
+        <v>611459.3894176277</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>611459.3894176278</v>
+        <v>611459.3894176279</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>611459.3894176277</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>611459.3894176279</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918869</v>
+        <v>787455.5478918899</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500567</v>
+        <v>4906.247008497767</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1.448949315429976e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002811</v>
       </c>
       <c r="K3" t="n">
-        <v>4.987936500614962e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.189062972413952e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909047</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216188</v>
+        <v>189891.8124216195</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707359</v>
@@ -26441,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707281</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707323</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707345</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707323</v>
+        <v>6897.424496707319</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051734</v>
+        <v>86500.62127051741</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747552</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243806.3793890263</v>
+        <v>-243806.3793890287</v>
       </c>
       <c r="C6" t="n">
-        <v>539625.6325966886</v>
+        <v>539625.6325966914</v>
       </c>
       <c r="D6" t="n">
-        <v>544531.8796051891</v>
+        <v>544531.8796051915</v>
       </c>
       <c r="E6" t="n">
-        <v>-76909.08116155</v>
+        <v>-76596.43983263132</v>
       </c>
       <c r="F6" t="n">
-        <v>698779.2661150348</v>
+        <v>699091.9074439559</v>
       </c>
       <c r="G6" t="n">
-        <v>698779.2661150343</v>
+        <v>699091.9074439554</v>
       </c>
       <c r="H6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="I6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="J6" t="n">
-        <v>526418.2737147538</v>
+        <v>526730.9150436751</v>
       </c>
       <c r="K6" t="n">
-        <v>698779.2661150346</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="L6" t="n">
-        <v>698779.2661150348</v>
+        <v>699091.907443956</v>
       </c>
       <c r="M6" t="n">
-        <v>570701.6692993208</v>
+        <v>571014.3106282421</v>
       </c>
       <c r="N6" t="n">
-        <v>698779.2661150349</v>
+        <v>699091.9074439558</v>
       </c>
       <c r="O6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439564</v>
       </c>
       <c r="P6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439561</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225493</v>
+        <v>588.0881844225523</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380614</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,10 +26946,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.48632871551744e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.48632871551744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225493</v>
+        <v>588.0881844225523</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515854</v>
+        <v>5.387915915512778</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-3.637978807091713e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544876</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.761494245161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544876</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>257.4630222648596</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>315.2627091761995</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>244.4602812798505</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.50480425168783</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251685343</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>105.2542924414428</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
@@ -27557,10 +27557,10 @@
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>123.5587419097205</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775204</v>
+        <v>18.38275699775164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>129.6100444893999</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>205.5352037822504</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>24.96568507533169</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>99.64537528209223</v>
+        <v>99.64537528209178</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>87.96077371353681</v>
+        <v>105.6566155953058</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>276.4611155403111</v>
+        <v>276.4611155403119</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>212.6518631149661</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -28031,10 +28031,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794172</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677916</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>205.3658819001188</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.48721104172736</v>
+        <v>114.1830529235027</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.557476906065137e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>-6.102654806131261e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718789</v>
+        <v>2.364173605718801</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956755</v>
+        <v>24.21209293956768</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447372</v>
+        <v>91.14480293447419</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683753</v>
+        <v>200.6562795683763</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984517</v>
+        <v>300.7317482984532</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844681</v>
+        <v>373.0843262844701</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451696</v>
+        <v>415.1281986451718</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024182</v>
+        <v>421.8454069024204</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105519</v>
+        <v>398.336655610554</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193693</v>
+        <v>339.9711197193711</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645651</v>
+        <v>255.3041524645664</v>
       </c>
       <c r="R2" t="n">
-        <v>148.508520260233</v>
+        <v>148.5085202602338</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031696</v>
+        <v>53.87360604031724</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903401</v>
+        <v>10.34916995903406</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575031</v>
+        <v>0.1891338884575041</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682465</v>
+        <v>1.264944396682471</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111749</v>
+        <v>12.21669983111755</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770766</v>
+        <v>43.55181365770789</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777944</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555188</v>
+        <v>204.2607800555199</v>
       </c>
       <c r="L3" t="n">
-        <v>274.65382613055</v>
+        <v>274.6538261305515</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102893</v>
+        <v>320.508060510291</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704977</v>
+        <v>328.9909551704994</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808494</v>
+        <v>300.9624503808509</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489524</v>
+        <v>241.5488997489536</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361695</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910953</v>
+        <v>78.53751262910994</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820278</v>
+        <v>23.4957873682029</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908703</v>
+        <v>5.09861359890873</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0832200260975306</v>
+        <v>0.08322002609753103</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942307</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577926</v>
+        <v>9.428692530577976</v>
       </c>
       <c r="I4" t="n">
-        <v>31.8917330175376</v>
+        <v>31.89173301753776</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892074</v>
+        <v>74.97642311892113</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314783</v>
+        <v>123.209295031479</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646946</v>
+        <v>157.6654781646954</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934101</v>
+        <v>166.2361403934109</v>
       </c>
       <c r="N4" t="n">
-        <v>162.283416530898</v>
+        <v>162.2834165308988</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983909</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435671</v>
+        <v>128.2610689435678</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780493</v>
+        <v>88.8013158478054</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877693</v>
+        <v>47.68334688776955</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472175</v>
+        <v>18.48139425472184</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026197</v>
+        <v>4.531171257026221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139835</v>
+        <v>0.05784473945139865</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198235</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055143</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651505</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937389</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779002</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>376.5024309712508</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074799</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359644</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822494</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>343.085849542668</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457561</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411488</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810484</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916528</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358588</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840358</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985294</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182814</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847376</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070416</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512805</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842435</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900633</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947058</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671559</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607447</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080756</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784612</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308285</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.083982467028971</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888307</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838206958</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>32.18391704784111</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490332</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790233</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889944</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676916</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441081</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714128</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720912</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104727</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937788</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368535</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522766</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.610375041689</v>
+        <v>19.61037504169002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347114</v>
+        <v>80.64189725347268</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000210079</v>
+        <v>554.9791258649333</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107294</v>
+        <v>634.2954989107316</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178114</v>
+        <v>629.7792677178136</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516105</v>
+        <v>547.3865996076756</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640998</v>
+        <v>108.7381239641015</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011559</v>
+        <v>32.99846259011693</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108115984</v>
+        <v>66.41934108116092</v>
       </c>
       <c r="L3" t="n">
-        <v>506.939791654135</v>
+        <v>506.9397916541365</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382708</v>
+        <v>644.0790903382726</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
-        <v>284.7051041071026</v>
+        <v>552.228525213136</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745593</v>
+        <v>158.5138398685209</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014712</v>
+        <v>21.48726855014797</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055955</v>
+        <v>100.9398032055961</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.2555034250116</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552507</v>
+        <v>205.8200173552515</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101266</v>
+        <v>206.4155889101274</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124298</v>
+        <v>174.4801294124306</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084606</v>
+        <v>125.5396282084612</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110544</v>
+        <v>2.639272596111013</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441386</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34950,7 +34950,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35020,13 +35020,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>219.3214183675542</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>368.626811737848</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391264</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040844</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>140.7360160012636</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>188.5852654802071</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513577</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233081</v>
       </c>
       <c r="P8" t="n">
-        <v>247.0354981199619</v>
+        <v>247.035498119978</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312113</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584797</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>332.7559639452612</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748655</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933425</v>
+        <v>181.3104407622251</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793776</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269909</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927628</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>233.0438950105723</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531405</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493105</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295322</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233367</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854525</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369847</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899352889</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
